--- a/02_output/08_SHI/shi_mean_total.xlsx
+++ b/02_output/08_SHI/shi_mean_total.xlsx
@@ -1,109 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/08_SHI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C2D652330059E7AAB464A19A577C0B9392592EB4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79420EE6-59CA-42A1-9656-E35D64DBB0C7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="63855" yWindow="6240" windowWidth="14400" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Field ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farming_system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microbial_c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mg_aus_kation_mmol_kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na_aus_kation_mmol_kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C%_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C/N_normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean_BD_g_cm3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shi_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+  <si>
+    <t>Field ID</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>farming_system</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>microbial_c</t>
+  </si>
+  <si>
+    <t>Mg_aus_kation_mmol_kg</t>
+  </si>
+  <si>
+    <t>Na_aus_kation_mmol_kg</t>
+  </si>
+  <si>
+    <t>C%_normal</t>
+  </si>
+  <si>
+    <t>C/N_normal</t>
+  </si>
+  <si>
+    <t>mean_BD_g_cm3</t>
+  </si>
+  <si>
+    <t>shi_total</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,9 +143,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,14 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,287 +480,287 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.820793433652531</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.523873396605388</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.622120212923122</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.95311433171153</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.459498207885305</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.545768396858327</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.857339338052047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.78250731768825</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>0.97993616051071597</v>
+      </c>
+      <c r="E2">
+        <v>0.94885650882672901</v>
+      </c>
+      <c r="F2">
+        <v>0.608857776493678</v>
+      </c>
+      <c r="G2">
+        <v>0.74824415720888005</v>
+      </c>
+      <c r="H2">
+        <v>0.77757296466973902</v>
+      </c>
+      <c r="I2">
+        <v>0.745575633663069</v>
+      </c>
+      <c r="J2">
+        <v>0.91246362832486805</v>
+      </c>
+      <c r="K2">
+        <v>5.7215068296976801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.782489740082079</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.439845091519702</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.650121994840852</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.590630855214268</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.417613927291347</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.550414758244218</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.795528038680617</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.22664440587308</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="D3">
+        <v>0.94345645234838105</v>
+      </c>
+      <c r="E3">
+        <v>0.66055707781228701</v>
+      </c>
+      <c r="F3">
+        <v>0.588861127344531</v>
+      </c>
+      <c r="G3">
+        <v>0.72986666560874203</v>
+      </c>
+      <c r="H3">
+        <v>0.78156682027649804</v>
+      </c>
+      <c r="I3">
+        <v>0.60717199354560702</v>
+      </c>
+      <c r="J3">
+        <v>0.95971716583215705</v>
+      </c>
+      <c r="K3">
+        <v>5.2711973027681998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.827633378932969</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.347097165548872</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.401712372164127</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.28327838636319</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.311520737327189</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.524247572085751</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.755161901115066</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.45065151353716</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.82079343365253099</v>
+      </c>
+      <c r="E4">
+        <v>0.52387339660538801</v>
+      </c>
+      <c r="F4">
+        <v>0.62212021292312203</v>
+      </c>
+      <c r="G4">
+        <v>0.95311433171153004</v>
+      </c>
+      <c r="H4">
+        <v>0.45949820788530499</v>
+      </c>
+      <c r="I4">
+        <v>0.54576839685832701</v>
+      </c>
+      <c r="J4">
+        <v>0.85733933805204698</v>
+      </c>
+      <c r="K4">
+        <v>4.7825073176882498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.943456452348381</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.660557077812287</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.588861127344531</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.729866665608742</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.781566820276498</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.607171993545607</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.959717165832157</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.2711973027682</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>0.75968992248061995</v>
+      </c>
+      <c r="E5">
+        <v>0.409775134946884</v>
+      </c>
+      <c r="F5">
+        <v>0.71194462155093396</v>
+      </c>
+      <c r="G5">
+        <v>0.684332171697002</v>
+      </c>
+      <c r="H5">
+        <v>0.47281105990783401</v>
+      </c>
+      <c r="I5">
+        <v>0.56507211080709996</v>
+      </c>
+      <c r="J5">
+        <v>0.837831783968088</v>
+      </c>
+      <c r="K5">
+        <v>4.4414568053584604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.979936160510716</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.948856508826729</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.608857776493678</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.74824415720888</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.777572964669739</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.745575633663069</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.912463628324868</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.72150682969768</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>0.78248974008207905</v>
+      </c>
+      <c r="E6">
+        <v>0.43984509151970203</v>
+      </c>
+      <c r="F6">
+        <v>0.65012199484085198</v>
+      </c>
+      <c r="G6">
+        <v>0.59063085521426795</v>
+      </c>
+      <c r="H6">
+        <v>0.417613927291347</v>
+      </c>
+      <c r="I6">
+        <v>0.55041475824421804</v>
+      </c>
+      <c r="J6">
+        <v>0.79552803868061694</v>
+      </c>
+      <c r="K6">
+        <v>4.2266444058730803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.75968992248062</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.409775134946884</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.711944621550934</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.684332171697002</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.472811059907834</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.5650721108071</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.837831783968088</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.44145680535846</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>0.72138622891016901</v>
+      </c>
+      <c r="E7">
+        <v>0.48550484903203101</v>
+      </c>
+      <c r="F7">
+        <v>0.41701975681482001</v>
+      </c>
+      <c r="G7">
+        <v>0.538593802036058</v>
+      </c>
+      <c r="H7">
+        <v>0.33558627752176101</v>
+      </c>
+      <c r="I7">
+        <v>0.51060999361910397</v>
+      </c>
+      <c r="J7">
+        <v>0.83189700759921004</v>
+      </c>
+      <c r="K7">
+        <v>3.84059791553315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>0.79890560875512995</v>
+      </c>
+      <c r="E8">
+        <v>0.46483559804719998</v>
+      </c>
+      <c r="F8">
+        <v>0.25247739101378602</v>
+      </c>
+      <c r="G8">
+        <v>0.42212221681314899</v>
+      </c>
+      <c r="H8">
+        <v>0.43717357910906302</v>
+      </c>
+      <c r="I8">
+        <v>0.625220241137737</v>
+      </c>
+      <c r="J8">
+        <v>0.826953474200679</v>
+      </c>
+      <c r="K8">
+        <v>3.8276881090767398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.711810305517556</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.387578686907898</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.588027999516963</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.384294432862705</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="D9">
+        <v>0.71181030551755597</v>
+      </c>
+      <c r="E9">
+        <v>0.38757868690789798</v>
+      </c>
+      <c r="F9">
+        <v>0.58802799951696305</v>
+      </c>
+      <c r="G9">
+        <v>0.38429443286270498</v>
+      </c>
+      <c r="H9">
         <v>0.382078853046595</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.540630606251942</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.816223964017723</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.81064484812138</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.721386228910169</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.485504849032031</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.41701975681482</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.538593802036058</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.335586277521761</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.510609993619104</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.83189700759921</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.84059791553315</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="I9">
+        <v>0.54063060625194204</v>
+      </c>
+      <c r="J9">
+        <v>0.81622396401772301</v>
+      </c>
+      <c r="K9">
+        <v>3.8106448481213802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -752,67 +770,67 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.619699042407661</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10">
+        <v>0.61969904240766105</v>
+      </c>
+      <c r="E10">
         <v>0.344558321431224</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.366011531652364</v>
       </c>
-      <c r="G10" t="n">
-        <v>0.808748254906672</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.307219662058372</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.508506970544314</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.853737753457593</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.8084815364582</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="G10">
+        <v>0.80874825490667201</v>
+      </c>
+      <c r="H10">
+        <v>0.30721966205837198</v>
+      </c>
+      <c r="I10">
+        <v>0.50850697054431404</v>
+      </c>
+      <c r="J10">
+        <v>0.85373775345759295</v>
+      </c>
+      <c r="K10">
+        <v>3.8084815364582001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.79890560875513</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.4648355980472</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.252477391013786</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.422122216813149</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.437173579109063</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.625220241137737</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.826953474200679</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.82768810907674</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>0.82763337893296895</v>
+      </c>
+      <c r="E11">
+        <v>0.34709716554887199</v>
+      </c>
+      <c r="F11">
+        <v>0.40171237216412697</v>
+      </c>
+      <c r="G11">
+        <v>0.28327838636319003</v>
+      </c>
+      <c r="H11">
+        <v>0.31152073732718899</v>
+      </c>
+      <c r="I11">
+        <v>0.52424757208575101</v>
+      </c>
+      <c r="J11">
+        <v>0.75516190111506598</v>
+      </c>
+      <c r="K11">
+        <v>3.45065151353716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -822,33 +840,36 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.71500227998176</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.302472851094147</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.437661302158783</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="D12">
+        <v>0.71500227998176002</v>
+      </c>
+      <c r="E12">
+        <v>0.30247285109414701</v>
+      </c>
+      <c r="F12">
+        <v>0.43766130215878302</v>
+      </c>
+      <c r="G12">
         <v>0.266953382417633</v>
       </c>
-      <c r="H12" t="n">
-        <v>0.286328725038403</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.54509155416579</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.764950050724795</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.31846014558131</v>
+      <c r="H12">
+        <v>0.28632872503840301</v>
+      </c>
+      <c r="I12">
+        <v>0.54509155416579003</v>
+      </c>
+      <c r="J12">
+        <v>0.76495005072479505</v>
+      </c>
+      <c r="K12">
+        <v>3.3184601455813101</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K12">
+    <sortCondition descending="1" ref="K1:K12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>